--- a/biology/Botanique/Podocarpus_macrophyllus/Podocarpus_macrophyllus.xlsx
+++ b/biology/Botanique/Podocarpus_macrophyllus/Podocarpus_macrophyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus macrophyllus est un arbre de la famille des Podocarpacées (Conifères), originaire d'Extrême-Orient, souvent cultivé comme arbre d'ornement.
 Il est également connu sous le nom de « pin des bouddhistes » et, notamment dans les pays anglo-saxons sous ses noms japonais de Kusamaki ou Inumaki, Il possède de belles aiguilles d'un vert profond, légèrement arrondies.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à croissance lente, de taille moyenne (15 à 20 m de haut) à feuillage persistant.
 Les feuilles, linéaires, arrondies aux extrémités, ont de 5 à 15 cm de long sur environ 1 cm de large, coriaces, de couleur vert brillant dessus, glaucescente dessous, munies d'une nervure principale bien marquée.
@@ -546,7 +560,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'espèce la plus septentrionale du genre Podocarpus. Elle est originaire du sud du Japon (Honshū, Kyūshū, îles Ryūkyū, Shikoku), du sud de la Chine et de Taïwan.
 Cultivée très anciennement au Japon, cette espèce a été introduite en Europe en 1804 par William Kerr.
@@ -580,11 +596,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arbre d'ornement
-Le Podocarpus macrophyllus est cultivé comme arbre d'ornement dans les parcs et jardins tant pour son port que pour son feuillage toujours vert. Il est populaire particulièrement au Japon et dans le Sud-Est des États-Unis.
+          <t>Arbre d'ornement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Podocarpus macrophyllus est cultivé comme arbre d'ornement dans les parcs et jardins tant pour son port que pour son feuillage toujours vert. Il est populaire particulièrement au Japon et dans le Sud-Est des États-Unis.
 Les arilles entourant les cônes mûrs sont comestibles, bien que les graines ne doivent pas être consommées.
-Culture de bonsaï
-Exposition
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Podocarpus_macrophyllus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Podocarpus_macrophyllus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culture de bonsaï</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Exposition
 En été, une exposition à l'extérieur lui convient très bien. Moyennant une courte période d'acclimatation, il supportera même parfaitement le plein soleil. En hiver, cette espèce ne supportant pas trop le froid, éviter de l'exposer à des températures inférieures à 10 °C. Veiller à lui assurer une luminosité abondante qui lui est indispensable pour rester en bonne santé.
 Rempotage et substrat
 Prévoir un rempotage tous les deux à trois ans. Couper un bon tiers du pain racinaire en prenant garde à ne pas éliminer trop de nodules nécessaires à l'assimilation d'azote. Le substrat qu'il est conseillé d'utiliser est l'akadama. À défaut, composer un substrat comportant 90 % de pouzzolane ou de pumice et 10 % de terreau ou d'écorces de pins broyées.
@@ -607,37 +663,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Podocarpus_macrophyllus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Podocarpus_macrophyllus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Symbolisme</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Podocarpus macrophyllus est l'arbre-emblème de la province japonaise de Chiba, où il est connu sous le nom de Kusamaki.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -659,10 +684,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Symbolisme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Podocarpus macrophyllus est l'arbre-emblème de la province japonaise de Chiba, où il est connu sous le nom de Kusamaki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Podocarpus_macrophyllus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Podocarpus_macrophyllus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Abcorpus n°3 par Alain Patiny sous licence FDL GNU</t>
         </is>
